--- a/docentes.xlsx
+++ b/docentes.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="docentes" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -97,231 +98,231 @@
     <t xml:space="preserve">Seguro</t>
   </si>
   <si>
+    <t xml:space="preserve">Cabo Benítez</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jorge</t>
   </si>
   <si>
-    <t xml:space="preserve">Cabo Benítez</t>
-  </si>
-  <si>
     <t xml:space="preserve">DOCE</t>
   </si>
   <si>
+    <t xml:space="preserve">Fernandez Perez</t>
+  </si>
+  <si>
     <t xml:space="preserve">Julieta</t>
   </si>
   <si>
-    <t xml:space="preserve">Fernandez Perez</t>
+    <t xml:space="preserve">Vázquez Cabeza</t>
   </si>
   <si>
     <t xml:space="preserve">Carmen Rosario</t>
   </si>
   <si>
-    <t xml:space="preserve">Vázquez Cabeza</t>
+    <t xml:space="preserve">Cisneros</t>
   </si>
   <si>
     <t xml:space="preserve">Guillermo</t>
   </si>
   <si>
-    <t xml:space="preserve">Cisneros</t>
+    <t xml:space="preserve">Aramburu</t>
   </si>
   <si>
     <t xml:space="preserve">Graciela</t>
   </si>
   <si>
-    <t xml:space="preserve">Aramburu</t>
+    <t xml:space="preserve">Urritiaga</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel Alfonso</t>
   </si>
   <si>
-    <t xml:space="preserve">Urritiaga</t>
+    <t xml:space="preserve">González</t>
   </si>
   <si>
     <t xml:space="preserve">Adán</t>
   </si>
   <si>
-    <t xml:space="preserve">González</t>
+    <t xml:space="preserve">Lopes Martínez</t>
   </si>
   <si>
     <t xml:space="preserve">Ana</t>
   </si>
   <si>
-    <t xml:space="preserve">Lopes Martínez</t>
+    <t xml:space="preserve">Lafuente</t>
   </si>
   <si>
     <t xml:space="preserve">Dolores</t>
   </si>
   <si>
-    <t xml:space="preserve">Lafuente</t>
+    <t xml:space="preserve">Peralta San Juan</t>
   </si>
   <si>
     <t xml:space="preserve">Leonardo</t>
   </si>
   <si>
-    <t xml:space="preserve">Peralta San Juan</t>
+    <t xml:space="preserve">Peralta</t>
   </si>
   <si>
     <t xml:space="preserve">Ramón</t>
   </si>
   <si>
-    <t xml:space="preserve">Peralta</t>
+    <t xml:space="preserve">Castaño</t>
   </si>
   <si>
     <t xml:space="preserve">Juan</t>
   </si>
   <si>
-    <t xml:space="preserve">Castaño</t>
+    <t xml:space="preserve">Gonzalez</t>
   </si>
   <si>
     <t xml:space="preserve">Julián</t>
   </si>
   <si>
-    <t xml:space="preserve">Gonzalez</t>
+    <t xml:space="preserve">Alcaraz</t>
   </si>
   <si>
     <t xml:space="preserve">Marcelo Fernando</t>
   </si>
   <si>
-    <t xml:space="preserve">Alcaraz</t>
+    <t xml:space="preserve">Lozano Peralta</t>
   </si>
   <si>
     <t xml:space="preserve">Guillermo Javier</t>
   </si>
   <si>
-    <t xml:space="preserve">Lozano Peralta</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lozano</t>
   </si>
   <si>
+    <t xml:space="preserve">Del Moral</t>
+  </si>
+  <si>
     <t xml:space="preserve">Francisco Guillermo</t>
   </si>
   <si>
-    <t xml:space="preserve">Del Moral</t>
+    <t xml:space="preserve">Benítez López</t>
   </si>
   <si>
     <t xml:space="preserve">Pilar Laura</t>
   </si>
   <si>
-    <t xml:space="preserve">Benítez López</t>
+    <t xml:space="preserve">González Muñoz</t>
   </si>
   <si>
     <t xml:space="preserve">Jorge Carlos</t>
   </si>
   <si>
-    <t xml:space="preserve">González Muñoz</t>
+    <t xml:space="preserve">Cabeza Algaba</t>
   </si>
   <si>
     <t xml:space="preserve">Vicente</t>
   </si>
   <si>
-    <t xml:space="preserve">Cabeza Algaba</t>
+    <t xml:space="preserve">Benítez García</t>
   </si>
   <si>
     <t xml:space="preserve">Francisco Jorge</t>
   </si>
   <si>
-    <t xml:space="preserve">Benítez García</t>
-  </si>
-  <si>
     <t xml:space="preserve">González Gutiérrez</t>
   </si>
   <si>
+    <t xml:space="preserve">Miranda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Martín</t>
   </si>
   <si>
-    <t xml:space="preserve">Miranda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sainz Álvarez</t>
   </si>
   <si>
+    <t xml:space="preserve">Benítez</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elías Adán</t>
   </si>
   <si>
-    <t xml:space="preserve">Benítez</t>
-  </si>
-  <si>
     <t xml:space="preserve">García</t>
   </si>
   <si>
+    <t xml:space="preserve">Sainz Cabeza</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dolores Ana</t>
   </si>
   <si>
-    <t xml:space="preserve">Sainz Cabeza</t>
+    <t xml:space="preserve">Lozano Benítez</t>
   </si>
   <si>
     <t xml:space="preserve">Carmen María</t>
   </si>
   <si>
-    <t xml:space="preserve">Lozano Benítez</t>
+    <t xml:space="preserve">Iborra Mate</t>
   </si>
   <si>
     <t xml:space="preserve">Rosario</t>
   </si>
   <si>
-    <t xml:space="preserve">Iborra Mate</t>
+    <t xml:space="preserve">Peralta Castaño</t>
   </si>
   <si>
     <t xml:space="preserve">Juan Nicolás</t>
   </si>
   <si>
-    <t xml:space="preserve">Peralta Castaño</t>
+    <t xml:space="preserve">Pérez</t>
   </si>
   <si>
     <t xml:space="preserve">Óscar</t>
   </si>
   <si>
-    <t xml:space="preserve">Pérez</t>
+    <t xml:space="preserve">Manzano</t>
   </si>
   <si>
     <t xml:space="preserve">María</t>
   </si>
   <si>
-    <t xml:space="preserve">Manzano</t>
+    <t xml:space="preserve">Peralta Sánchez</t>
   </si>
   <si>
     <t xml:space="preserve">Nicolás</t>
   </si>
   <si>
-    <t xml:space="preserve">Peralta Sánchez</t>
+    <t xml:space="preserve">Montserrat</t>
   </si>
   <si>
     <t xml:space="preserve">Martín Javier</t>
   </si>
   <si>
-    <t xml:space="preserve">Montserrat</t>
+    <t xml:space="preserve">López</t>
   </si>
   <si>
     <t xml:space="preserve">Adán Antonio</t>
   </si>
   <si>
-    <t xml:space="preserve">López</t>
+    <t xml:space="preserve">Peralta Fernández</t>
   </si>
   <si>
     <t xml:space="preserve">Ezequiel José</t>
   </si>
   <si>
-    <t xml:space="preserve">Peralta Fernández</t>
+    <t xml:space="preserve">Mate</t>
   </si>
   <si>
     <t xml:space="preserve">Cristina</t>
   </si>
   <si>
-    <t xml:space="preserve">Mate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rosa</t>
   </si>
   <si>
     <t xml:space="preserve">López Lafuente</t>
   </si>
   <si>
+    <t xml:space="preserve">Herrero Rubio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuria</t>
   </si>
   <si>
-    <t xml:space="preserve">Herrero Rubio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rubio</t>
   </si>
   <si>
@@ -331,16 +332,16 @@
     <t xml:space="preserve">Peralta García</t>
   </si>
   <si>
+    <t xml:space="preserve">Martínez Mate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laura</t>
   </si>
   <si>
-    <t xml:space="preserve">Martínez Mate</t>
+    <t xml:space="preserve">Juran</t>
   </si>
   <si>
     <t xml:space="preserve">Martín Tomás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juran</t>
   </si>
   <si>
     <t xml:space="preserve">Marazzo</t>
@@ -359,6 +360,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -380,6 +382,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -387,12 +390,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -470,7 +475,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,6 +498,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -574,20 +583,20 @@
   </sheetPr>
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G95" activeCellId="0" sqref="G95"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="14" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.3316326530612"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -692,7 +701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>10</v>
       </c>
@@ -766,7 +775,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>10</v>
       </c>
@@ -840,7 +849,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>57</v>
       </c>
@@ -914,7 +923,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>57</v>
       </c>
@@ -988,7 +997,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>81</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>81</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>94</v>
       </c>
@@ -1210,7 +1219,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>94</v>
       </c>
@@ -1284,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>104</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>104</v>
       </c>
@@ -1432,7 +1441,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>107</v>
       </c>
@@ -1506,7 +1515,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>107</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>218</v>
       </c>
@@ -1590,7 +1599,7 @@
       <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="6" t="n">
         <v>198</v>
       </c>
       <c r="E15" s="3" t="n">
@@ -1654,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>218</v>
       </c>
@@ -1728,7 +1737,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>257</v>
       </c>
@@ -1802,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>257</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>268</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>268</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>318</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>318</v>
       </c>
@@ -2172,7 +2181,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>325</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>325</v>
       </c>
@@ -2320,7 +2329,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>427</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>427</v>
       </c>
@@ -2468,7 +2477,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>467</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>467</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>469</v>
       </c>
@@ -2690,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>469</v>
       </c>
@@ -2764,7 +2773,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>480</v>
       </c>
@@ -2838,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>480</v>
       </c>
@@ -2912,7 +2921,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>521</v>
       </c>
@@ -2986,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>521</v>
       </c>
@@ -3060,15 +3069,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>671</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>204</v>
@@ -3134,15 +3143,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
         <v>671</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>175</v>
@@ -3208,7 +3217,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
         <v>948</v>
       </c>
@@ -3282,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
         <v>948</v>
       </c>
@@ -3356,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
         <v>1027</v>
       </c>
@@ -3430,7 +3439,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
         <v>1027</v>
       </c>
@@ -3504,7 +3513,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
         <v>1108</v>
       </c>
@@ -3578,7 +3587,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
         <v>1108</v>
       </c>
@@ -3652,7 +3661,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
         <v>1153</v>
       </c>
@@ -3726,7 +3735,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
         <v>1153</v>
       </c>
@@ -3800,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
         <v>1193</v>
       </c>
@@ -3874,7 +3883,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
         <v>1193</v>
       </c>
@@ -3948,15 +3957,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
         <v>1221</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D47" s="3" t="n">
         <v>291</v>
@@ -4022,15 +4031,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
         <v>1221</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D48" s="3" t="n">
         <v>208</v>
@@ -4096,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
         <v>1229</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">
         <v>1229</v>
       </c>
@@ -4244,15 +4253,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
         <v>1358</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>165</v>
@@ -4318,15 +4327,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="n">
         <v>1358</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>300</v>
@@ -4392,7 +4401,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="n">
         <v>1640</v>
       </c>
@@ -4466,7 +4475,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
         <v>1640</v>
       </c>
@@ -4540,15 +4549,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="n">
         <v>2067</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D55" s="3" t="n">
         <v>208</v>
@@ -4614,15 +4623,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="n">
         <v>2067</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>265</v>
@@ -4688,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="n">
         <v>2125</v>
       </c>
@@ -4762,7 +4771,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">
         <v>2125</v>
       </c>
@@ -4836,7 +4845,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="n">
         <v>2176</v>
       </c>
@@ -4910,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">
         <v>2176</v>
       </c>
@@ -4984,7 +4993,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="n">
         <v>2194</v>
       </c>
@@ -5058,7 +5067,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
         <v>2194</v>
       </c>
@@ -5132,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="n">
         <v>2330</v>
       </c>
@@ -5206,7 +5215,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="n">
         <v>2330</v>
       </c>
@@ -5280,7 +5289,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="n">
         <v>2407</v>
       </c>
@@ -5354,7 +5363,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="n">
         <v>2407</v>
       </c>
@@ -5428,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="n">
         <v>2459</v>
       </c>
@@ -5502,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="n">
         <v>2459</v>
       </c>
@@ -5576,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="n">
         <v>2592</v>
       </c>
@@ -5650,7 +5659,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="n">
         <v>2592</v>
       </c>
@@ -5724,7 +5733,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="n">
         <v>2609</v>
       </c>
@@ -5798,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="n">
         <v>2609</v>
       </c>
@@ -5872,7 +5881,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="n">
         <v>2647</v>
       </c>
@@ -5946,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="n">
         <v>2647</v>
       </c>
@@ -6020,7 +6029,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="n">
         <v>2653</v>
       </c>
@@ -6094,7 +6103,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="n">
         <v>2653</v>
       </c>
@@ -6168,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="n">
         <v>2675</v>
       </c>
@@ -6242,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="n">
         <v>2675</v>
       </c>
@@ -6316,15 +6325,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="n">
         <v>2786</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D79" s="3" t="n">
         <v>295</v>
@@ -6390,15 +6399,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="n">
         <v>2786</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D80" s="3" t="n">
         <v>259</v>
@@ -6464,15 +6473,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="n">
         <v>2859</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D81" s="3" t="n">
         <v>232</v>
@@ -6538,15 +6547,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="n">
         <v>2859</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D82" s="3" t="n">
         <v>228</v>
@@ -6612,7 +6621,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="n">
         <v>2924</v>
       </c>
@@ -6686,7 +6695,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="n">
         <v>2924</v>
       </c>
@@ -6760,15 +6769,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="n">
         <v>2974</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D85" s="3" t="n">
         <v>259</v>
@@ -6834,15 +6843,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="n">
         <v>2974</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D86" s="3" t="n">
         <v>275</v>
@@ -6908,15 +6917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="n">
         <v>3043</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D87" s="3" t="n">
         <v>157</v>
@@ -6982,15 +6991,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="n">
         <v>3043</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D88" s="3" t="n">
         <v>157</v>
@@ -7056,15 +7065,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="n">
         <v>3049</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D89" s="3" t="n">
         <v>198</v>
@@ -7130,15 +7139,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="n">
         <v>3049</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D90" s="3" t="n">
         <v>175</v>
@@ -7204,7 +7213,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="n">
         <v>3097</v>
       </c>
@@ -7278,7 +7287,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="n">
         <v>3097</v>
       </c>
@@ -7352,7 +7361,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="n">
         <v>143191</v>
       </c>
@@ -7426,7 +7435,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="n">
         <v>143191</v>
       </c>
@@ -7500,15 +7509,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="n">
         <v>143112</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D95" s="3" t="n">
         <v>214</v>
@@ -7586,4 +7595,30 @@
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>